--- a/output/prompt_chain_experiment_2023-04-14_0708.xlsx
+++ b/output/prompt_chain_experiment_2023-04-14_0708.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93345f1c83a5c894/lighthouse/Ginkgo coding/content-summarization/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B55E7882-4682-4138-836E-5587EB2CBCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E6AA088-A185-4B00-A24A-3C36A1395AAC}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{B55E7882-4682-4138-836E-5587EB2CBCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81D90169-37E2-4CC6-8497-0063430B6717}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="420" windowWidth="23520" windowHeight="15756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8664" yWindow="17172" windowWidth="19416" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prompt_experiments_Hypohydratio" sheetId="1" r:id="rId1"/>
-    <sheet name="ratings" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="ratings" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,31 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="213">
-  <si>
-    <t>Silvia's rating</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>not quite accurate</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>unable to get summary</t>
-  </si>
-  <si>
-    <t>poorly written</t>
-  </si>
-  <si>
-    <t>reasonable but technical</t>
-  </si>
-  <si>
-    <t>reasonable for lay audience</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="218">
   <si>
     <t>article_title</t>
   </si>
@@ -702,6 +679,45 @@
   </si>
   <si>
     <t xml:space="preserve"> Add 1-2 sentences to make this relevant for people who enjoy sports </t>
+  </si>
+  <si>
+    <t>Silvia's rating</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>reasonable but technical</t>
+  </si>
+  <si>
+    <t>reasonable for lay audience</t>
+  </si>
+  <si>
+    <t>not quite accurate</t>
+  </si>
+  <si>
+    <t>poorly written</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>unable to get summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">article </t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>summarization_task</t>
+  </si>
+  <si>
+    <t>add_context_task</t>
+  </si>
+  <si>
+    <t>simpify_task</t>
   </si>
 </sst>
 </file>
@@ -844,10 +860,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1263,6 +1278,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1563,1651 +1582,1651 @@
   <dimension ref="A2:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
     <col min="2" max="7" width="49.5546875" style="2" customWidth="1"/>
     <col min="8" max="13" width="42.5546875" style="2" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="224.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="277.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="3" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="250.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="4" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="250.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="303.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="145.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="145.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="2" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="2" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="2" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="F26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="E27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="G27" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="2" t="s">
+    </row>
+    <row r="29" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="E30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="F31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="G32" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="2" t="s">
+    </row>
+    <row r="34" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="F36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="G37" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="2" t="s">
+    </row>
+    <row r="39" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="E39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="F41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="G42" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="2" t="s">
+    </row>
+    <row r="44" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="E45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G42" s="2" t="s">
+      <c r="D47" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="E48" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="F49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="G50" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" s="2" t="s">
+    </row>
+    <row r="52" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="F52" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="E53" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="G53" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="E54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E50" s="2" t="s">
+    </row>
+    <row r="55" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="E55" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="E56" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="F57" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="E58" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="G58" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="E59" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E55" s="2" t="s">
+    </row>
+    <row r="60" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="E60" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="E61" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="F62" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="E63" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="G63" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="E64" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E60" s="2" t="s">
+    </row>
+    <row r="65" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="E65" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="E66" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="F67" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+      <c r="E68" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E64" s="2" t="s">
+    </row>
+    <row r="69" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="E69" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="E70" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="E71" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="G72" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3241,11 +3260,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAF7E6E-0650-465E-867B-1AEB57BCA819}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3256,7 +3328,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="str">
         <f>B1</f>
@@ -3268,7 +3340,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="C2" t="str">
         <f>A2&amp;" "&amp;B2</f>
@@ -3280,7 +3352,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="C3" t="str">
         <f>A3&amp;" "&amp;B3</f>
@@ -3292,7 +3364,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ref="C4:C8" si="0">A4&amp;" "&amp;B4</f>
@@ -3304,7 +3376,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -3316,7 +3388,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -3328,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -3340,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
